--- a/biology/Médecine/Jean-Pierre_Morat/Jean-Pierre_Morat.xlsx
+++ b/biology/Médecine/Jean-Pierre_Morat/Jean-Pierre_Morat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Morat, né le 18 avril 1846 à Saint-Sorlin en Saône-et-Loire, mort le 25 juillet 1920 dans la même commune dont le nom est devenu La Roche-Vineuse, est un médecin français, physiologiste, professeur titulaire de la chaire de physiologie à la faculté de médecine de Lyon.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Morat naît dans une famille de vignerons ; après des études au séminaire d’Autun, il pense pendant quelque temps à se tourner vers les lettres mais, finalement, il se décide pour la médecine et s’inscrit à l'école de médecine de Lyon.
 Interne des hôpitaux entre 1868 et 1872, il s’oriente vers l’enseignement ; chef des travaux anatomiques (1873-1876), il doit aller à Paris pour soutenir sa thèse :
@@ -552,7 +566,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est dans le laboratoire de Claude Bernard qu’il rencontre Henry Toussaint avec qui il se lie d’amitié :
 avec ce jeune vétérinaire, il fait de nombreuses recherches sur Les variations de l’état électrique des muscles ;
@@ -590,9 +606,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La rue Professeur-Morat, dans le 8e arrondissement de Lyon lui est dédiée depuis 1938[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rue Professeur-Morat, dans le 8e arrondissement de Lyon lui est dédiée depuis 1938.
 </t>
         </is>
       </c>
